--- a/Docs/Feature Backlog.xlsx
+++ b/Docs/Feature Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -22,16 +22,19 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>sever-side socket to initiate the game / lobby tracking</t>
-  </si>
-  <si>
-    <t>client-side socket to communicate with server socket</t>
-  </si>
-  <si>
-    <t>Lobby GUI with buttons “Host” and “Join”</t>
-  </si>
-  <si>
-    <t>Join GUI with name plates, button “Join”, and instruction</t>
+    <t>Sever-side socket to initiate the game</t>
+  </si>
+  <si>
+    <t>Lobby tracking</t>
+  </si>
+  <si>
+    <t>Client-side socket to communicate with server socket</t>
+  </si>
+  <si>
+    <t>Main GUI with buttons “Host” and “Join” and Instructions</t>
+  </si>
+  <si>
+    <t>Lobby GUI with name plates, options “Leave” and (host) “Start”, and instructions</t>
   </si>
   <si>
     <t>Play GUI with dice rolling animation, name plates, buttons “Roll” and “Pass”</t>
@@ -103,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,82 +116,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,7 +135,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -211,22 +148,7 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -247,7 +169,6 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -385,13 +306,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -490,10 +405,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -748,13 +663,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1067,10 +976,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1321,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1363,7 +1272,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="16.6" customHeight="1">
@@ -1373,7 +1282,7 @@
       <c r="B4" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1381,10 +1290,10 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1395,7 +1304,7 @@
       <c r="B6" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1403,10 +1312,10 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1417,19 +1326,19 @@
       <c r="B8" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
-        <v>2</v>
+      <c r="C8" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="16.6" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
+      <c r="C9" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="10" ht="16.6" customHeight="1">
@@ -1439,7 +1348,7 @@
       <c r="B10" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1450,19 +1359,30 @@
       <c r="B11" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
-        <v>3</v>
+      <c r="C11" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="12" ht="16.6" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="16.6" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
